--- a/xlsx/int_oda_donors_oneyear.xlsx
+++ b/xlsx/int_oda_donors_oneyear.xlsx
@@ -362,14 +362,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Beskrivelse</t>
+          <t>Metadata</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Arkfane Figurdata1 og Figurdata2 viser data for Bistand fra medlemsland i OECDs utviklingskomité, 2023, målt i USD mrd. og ODA/BNI-andel.</t>
         </is>
       </c>
     </row>

--- a/xlsx/int_oda_donors_oneyear.xlsx
+++ b/xlsx/int_oda_donors_oneyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for Bistand fra medlemsland i OECDs utviklingskomité, 2023, målt i USD mrd. og ODA/BNI-andel.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 viser data for Bistand fra medlemsland i OECDs utviklingskomité, 2024, målt i USD mrd. og ODA/BNI-andel.</t>
         </is>
       </c>
     </row>
@@ -411,11 +411,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.135057</v>
+        <v>0.092375</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -431,11 +431,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Slovak Republic</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.135854</v>
+        <v>0.13981</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -451,11 +451,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.148484</v>
+        <v>0.143656</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -471,11 +471,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.179512</v>
+        <v>0.169025</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -491,11 +491,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.186578</v>
+        <v>0.192749</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -511,11 +511,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.193695</v>
+        <v>0.19956</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.241406</v>
+        <v>0.207943</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.241591</v>
+        <v>0.216931</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -571,11 +571,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.242342</v>
+        <v>0.228986</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.243937</v>
+        <v>0.235144</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -611,11 +611,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.267113</v>
+        <v>0.237225</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -631,11 +631,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.275609</v>
+        <v>0.238455</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -651,11 +651,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.281763</v>
+        <v>0.253775</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -671,11 +671,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.30445</v>
+        <v>0.261109</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -691,11 +691,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.336497</v>
+        <v>0.282999</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -711,11 +711,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.364227</v>
+        <v>0.320926</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -731,15 +731,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DAC countries</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.3725794718753582</v>
+        <v>0.33474</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DAC countries, total)</t>
+          <t>Øvrige land</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -751,11 +751,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.381529</v>
+        <v>0.336314</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -771,11 +771,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.382936</v>
+        <v>0.337684</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -791,11 +791,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.438738</v>
+        <v>0.391623</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -811,11 +811,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.440346</v>
+        <v>0.469674</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.498755</v>
+        <v>0.477427</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -851,11 +851,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.52407</v>
+        <v>0.481778</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.579661</v>
+        <v>0.497766</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.59559</v>
+        <v>0.509863</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -911,11 +911,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.663782</v>
+        <v>0.565426</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -931,11 +931,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.668519</v>
+        <v>0.620336</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.741938</v>
+        <v>0.6737300000000001</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -971,11 +971,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.791474</v>
+        <v>0.714992</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.908282</v>
+        <v>0.786188</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.985791</v>
+        <v>0.999069</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>1.091926</v>
+        <v>1.023429</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.10927</v>
+        <v>0.08344</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1106,11 +1106,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.11548</v>
+        <v>0.11162</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1126,11 +1126,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.16293</v>
+        <v>0.11171</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1146,11 +1146,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.17454</v>
+        <v>0.16436</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1166,11 +1166,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.19066</v>
+        <v>0.19055</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1186,11 +1186,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovak Republic</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.30434</v>
+        <v>0.19139</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1206,11 +1206,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.32531</v>
+        <v>0.19342</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1226,11 +1226,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.52639</v>
+        <v>0.35765</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1246,15 +1246,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.58009</v>
+        <v>0.57225</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Land med BNI-andel over 0,7 %</t>
+          <t>Øvrige land</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1266,15 +1266,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.7464299999999999</v>
+        <v>0.59662</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Øvrige land</t>
+          <t>Land med BNI-andel over 0,7 %</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1286,11 +1286,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.7893600000000001</v>
+        <v>0.66911</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1306,11 +1306,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B13">
-        <v>1.57046</v>
+        <v>0.7807500000000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1326,11 +1326,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B14">
-        <v>1.95405</v>
+        <v>1.40826</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,11 +1346,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B15">
-        <v>2.60383</v>
+        <v>1.81962</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1366,11 +1366,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B16">
-        <v>2.8152</v>
+        <v>2.06469</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1386,11 +1386,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B17">
-        <v>2.82554</v>
+        <v>2.46926</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>3.0826</v>
+        <v>3.16753</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1426,11 +1426,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B19">
-        <v>3.13111</v>
+        <v>3.22196</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.25323</v>
+        <v>3.31864</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1466,11 +1466,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="B21">
-        <v>3.83257</v>
+        <v>3.94253</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1486,11 +1486,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B22">
-        <v>5.16423</v>
+        <v>4.350470000000001</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1506,20 +1506,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B23">
-        <v>5.54797</v>
+        <v>4.60258</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Land med BNI-andel over 0,7 %</t>
+          <t>Øvrige land</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>#ff570d</t>
+          <t>black</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>5.60614</v>
+        <v>5.00697</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1546,31 +1546,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B25">
-        <v>6.01359</v>
+        <v>5.18022</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Øvrige land</t>
+          <t>Land med BNI-andel over 0,7 %</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>#ff570d</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B26">
-        <v>7.36139</v>
+        <v>6.67186</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>8.073560000000001</v>
+        <v>7.41964</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1606,11 +1606,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B28">
-        <v>15.42644</v>
+        <v>7.522729999999999</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1626,11 +1626,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B29">
-        <v>19.11059</v>
+        <v>15.43322</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>19.60084</v>
+        <v>16.77167</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1666,11 +1666,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EU Institutions</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B31">
-        <v>26.92638</v>
+        <v>17.97133</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1686,15 +1686,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>EU Institutions</t>
         </is>
       </c>
       <c r="B32">
-        <v>36.68234</v>
+        <v>27.66525</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Land med BNI-andel over 0,7 %</t>
+          <t>Øvrige land</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1706,18 +1706,38 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>32.42183</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Land med BNI-andel over 0,7 %</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B33">
-        <v>66.04003</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Øvrige land</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="B34">
+        <v>63.29851</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Øvrige land</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>black</t>
         </is>

--- a/xlsx/int_oda_donors_oneyear.xlsx
+++ b/xlsx/int_oda_donors_oneyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for Bistand fra medlemsland i OECDs utviklingskomité, 2024, målt i USD mrd. og ODA/BNI-andel.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om bistand fra medlemsland i OECDs utviklingskomité. 2024. Milliarder dollar (USD) og andel ODA av bruttonasjonalinntekt (BNI).</t>
         </is>
       </c>
     </row>
